--- a/Code/Results/Cases/Case_2_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9993783230131965</v>
+        <v>1.027579103851454</v>
       </c>
       <c r="D2">
-        <v>1.022823268324074</v>
+        <v>1.038921105394123</v>
       </c>
       <c r="E2">
-        <v>1.022922505404069</v>
+        <v>1.048746567530101</v>
       </c>
       <c r="F2">
-        <v>1.030398880174662</v>
+        <v>1.053026461645807</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04528747733242</v>
+        <v>1.034947924550092</v>
       </c>
       <c r="J2">
-        <v>1.021577644244601</v>
+        <v>1.032736193644655</v>
       </c>
       <c r="K2">
-        <v>1.033973538493529</v>
+        <v>1.041707763553306</v>
       </c>
       <c r="L2">
-        <v>1.034071469504089</v>
+        <v>1.051505552442187</v>
       </c>
       <c r="M2">
-        <v>1.041450352201418</v>
+        <v>1.055773567335963</v>
       </c>
       <c r="N2">
-        <v>1.01110393167766</v>
+        <v>1.014925814505569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00326347203088</v>
+        <v>1.028410388610715</v>
       </c>
       <c r="D3">
-        <v>1.025732757333505</v>
+        <v>1.039567240331053</v>
       </c>
       <c r="E3">
-        <v>1.02652369668353</v>
+        <v>1.049593509313524</v>
       </c>
       <c r="F3">
-        <v>1.033900826115583</v>
+        <v>1.053833206538555</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046135099841717</v>
+        <v>1.035073291883963</v>
       </c>
       <c r="J3">
-        <v>1.023665565146334</v>
+        <v>1.033208330303622</v>
       </c>
       <c r="K3">
-        <v>1.036046638526249</v>
+        <v>1.042164443922471</v>
       </c>
       <c r="L3">
-        <v>1.036828087285074</v>
+        <v>1.052164511444643</v>
       </c>
       <c r="M3">
-        <v>1.044117563502973</v>
+        <v>1.056393290961473</v>
       </c>
       <c r="N3">
-        <v>1.011807056138618</v>
+        <v>1.01508360832088</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005731745038926</v>
+        <v>1.028948948965678</v>
       </c>
       <c r="D4">
-        <v>1.027583510430563</v>
+        <v>1.039985772271892</v>
       </c>
       <c r="E4">
-        <v>1.028819732564711</v>
+        <v>1.050142837386687</v>
       </c>
       <c r="F4">
-        <v>1.036131116929681</v>
+        <v>1.054356171255847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046663763707091</v>
+        <v>1.035153273349118</v>
       </c>
       <c r="J4">
-        <v>1.024989959976632</v>
+        <v>1.03351384478649</v>
       </c>
       <c r="K4">
-        <v>1.037360045851816</v>
+        <v>1.042459698973</v>
       </c>
       <c r="L4">
-        <v>1.038582339688297</v>
+        <v>1.052591554686157</v>
       </c>
       <c r="M4">
-        <v>1.045812183564435</v>
+        <v>1.056794584527109</v>
       </c>
       <c r="N4">
-        <v>1.012252897939473</v>
+        <v>1.015185673932038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006758808835179</v>
+        <v>1.029175516948152</v>
       </c>
       <c r="D5">
-        <v>1.028354131725303</v>
+        <v>1.040161826442164</v>
       </c>
       <c r="E5">
-        <v>1.029777051155132</v>
+        <v>1.050374084173284</v>
       </c>
       <c r="F5">
-        <v>1.037060427273683</v>
+        <v>1.054576250286363</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046881345886402</v>
+        <v>1.03518662404354</v>
       </c>
       <c r="J5">
-        <v>1.025540522381733</v>
+        <v>1.03364228432417</v>
       </c>
       <c r="K5">
-        <v>1.037905647169344</v>
+        <v>1.042583763508674</v>
       </c>
       <c r="L5">
-        <v>1.03931296645537</v>
+        <v>1.052771238266798</v>
       </c>
       <c r="M5">
-        <v>1.046517313226956</v>
+        <v>1.05696335632704</v>
       </c>
       <c r="N5">
-        <v>1.012438197731202</v>
+        <v>1.015228572862382</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006930645423232</v>
+        <v>1.029213567880536</v>
       </c>
       <c r="D6">
-        <v>1.028483092003117</v>
+        <v>1.040191392717998</v>
       </c>
       <c r="E6">
-        <v>1.029937330852174</v>
+        <v>1.05041292960405</v>
       </c>
       <c r="F6">
-        <v>1.037215982520123</v>
+        <v>1.054613215639933</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046917607217066</v>
+        <v>1.035192207712731</v>
       </c>
       <c r="J6">
-        <v>1.025632604471497</v>
+        <v>1.03366384992423</v>
       </c>
       <c r="K6">
-        <v>1.03799687601058</v>
+        <v>1.04260459089092</v>
       </c>
       <c r="L6">
-        <v>1.039435245037034</v>
+        <v>1.052801416948396</v>
       </c>
       <c r="M6">
-        <v>1.046635285609865</v>
+        <v>1.056991697793085</v>
       </c>
       <c r="N6">
-        <v>1.012469186849108</v>
+        <v>1.015235775213698</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00574550992227</v>
+        <v>1.028951975762476</v>
       </c>
       <c r="D7">
-        <v>1.027593836469586</v>
+        <v>1.039988124312606</v>
       </c>
       <c r="E7">
-        <v>1.028832555160463</v>
+        <v>1.050145926104862</v>
       </c>
       <c r="F7">
-        <v>1.036143566732502</v>
+        <v>1.054359111082376</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046666689298189</v>
+        <v>1.035153720058318</v>
       </c>
       <c r="J7">
-        <v>1.024997340821747</v>
+        <v>1.033515560998556</v>
       </c>
       <c r="K7">
-        <v>1.037367361759642</v>
+        <v>1.042461356969606</v>
       </c>
       <c r="L7">
-        <v>1.038592129067268</v>
+        <v>1.052593955021558</v>
       </c>
       <c r="M7">
-        <v>1.045821633932219</v>
+        <v>1.056796839399121</v>
       </c>
       <c r="N7">
-        <v>1.01225538223345</v>
+        <v>1.015186247187372</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000700993015067</v>
+        <v>1.027859902052279</v>
       </c>
       <c r="D8">
-        <v>1.023813266100104</v>
+        <v>1.039139377617556</v>
       </c>
       <c r="E8">
-        <v>1.024146772877721</v>
+        <v>1.049032525083149</v>
       </c>
       <c r="F8">
-        <v>1.031589921222826</v>
+        <v>1.053298907605252</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045578081104318</v>
+        <v>1.034990528567538</v>
       </c>
       <c r="J8">
-        <v>1.022288880479332</v>
+        <v>1.0328957515069</v>
       </c>
       <c r="K8">
-        <v>1.034680050721821</v>
+        <v>1.04186215127094</v>
       </c>
       <c r="L8">
-        <v>1.035009300531441</v>
+        <v>1.051728114579641</v>
       </c>
       <c r="M8">
-        <v>1.04235833569387</v>
+        <v>1.055982944593583</v>
       </c>
       <c r="N8">
-        <v>1.011343478191234</v>
+        <v>1.014979149156976</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9914461695827709</v>
+        <v>1.025940683142308</v>
       </c>
       <c r="D9">
-        <v>1.016897989064756</v>
+        <v>1.03764722513649</v>
       </c>
       <c r="E9">
-        <v>1.01561650243656</v>
+        <v>1.047080615241622</v>
       </c>
       <c r="F9">
-        <v>1.023280955104114</v>
+        <v>1.051438034025979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043504677018105</v>
+        <v>1.034694267235388</v>
       </c>
       <c r="J9">
-        <v>1.017304644162491</v>
+        <v>1.03180370421375</v>
       </c>
       <c r="K9">
-        <v>1.029722730807335</v>
+        <v>1.040804438800621</v>
       </c>
       <c r="L9">
-        <v>1.028461193806361</v>
+        <v>1.05020746531703</v>
       </c>
       <c r="M9">
-        <v>1.036007279023037</v>
+        <v>1.054551059933503</v>
       </c>
       <c r="N9">
-        <v>1.009664194884341</v>
+        <v>1.014613949046231</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9850069651295608</v>
+        <v>1.024664767257622</v>
       </c>
       <c r="D10">
-        <v>1.012103823277135</v>
+        <v>1.036654885705324</v>
       </c>
       <c r="E10">
-        <v>1.009728929465087</v>
+        <v>1.045786214252173</v>
       </c>
       <c r="F10">
-        <v>1.017533372267875</v>
+        <v>1.050202506892929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042012996295595</v>
+        <v>1.03449095377851</v>
       </c>
       <c r="J10">
-        <v>1.013828331880574</v>
+        <v>1.031075839586621</v>
       </c>
       <c r="K10">
-        <v>1.026257925085947</v>
+        <v>1.040098146080903</v>
       </c>
       <c r="L10">
-        <v>1.023924719135616</v>
+        <v>1.049197208391085</v>
       </c>
       <c r="M10">
-        <v>1.031593111589504</v>
+        <v>1.05359811740331</v>
       </c>
       <c r="N10">
-        <v>1.008492330844422</v>
+        <v>1.014370330599462</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9821492482803476</v>
+        <v>1.024113147352485</v>
       </c>
       <c r="D11">
-        <v>1.009981031465856</v>
+        <v>1.036225791328422</v>
       </c>
       <c r="E11">
-        <v>1.007127918191314</v>
+        <v>1.045227379420863</v>
       </c>
       <c r="F11">
-        <v>1.014991233708178</v>
+        <v>1.049668734417576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041339910060073</v>
+        <v>1.034401548475991</v>
       </c>
       <c r="J11">
-        <v>1.012283968015037</v>
+        <v>1.030760721640051</v>
       </c>
       <c r="K11">
-        <v>1.024717143277114</v>
+        <v>1.039792058039506</v>
       </c>
       <c r="L11">
-        <v>1.021916652779285</v>
+        <v>1.048760609266665</v>
       </c>
       <c r="M11">
-        <v>1.029635868645367</v>
+        <v>1.053185894505214</v>
       </c>
       <c r="N11">
-        <v>1.007971610682236</v>
+        <v>1.014264810996334</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9810768151143546</v>
+        <v>1.023908382029026</v>
       </c>
       <c r="D12">
-        <v>1.009185195628059</v>
+        <v>1.036066497886005</v>
       </c>
       <c r="E12">
-        <v>1.006153663306857</v>
+        <v>1.045020053117745</v>
       </c>
       <c r="F12">
-        <v>1.014038588505139</v>
+        <v>1.049470652743477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041085701329068</v>
+        <v>1.034368134343814</v>
       </c>
       <c r="J12">
-        <v>1.01170420536066</v>
+        <v>1.030643681930316</v>
       </c>
       <c r="K12">
-        <v>1.024138512410579</v>
+        <v>1.039678325864935</v>
       </c>
       <c r="L12">
-        <v>1.021163910880164</v>
+        <v>1.048598566130302</v>
       </c>
       <c r="M12">
-        <v>1.028901684573527</v>
+        <v>1.053032839489664</v>
       </c>
       <c r="N12">
-        <v>1.007776115001383</v>
+        <v>1.014225612100118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9813073596758674</v>
+        <v>1.023952298937308</v>
       </c>
       <c r="D13">
-        <v>1.009356241980066</v>
+        <v>1.03610066270747</v>
       </c>
       <c r="E13">
-        <v>1.006363017942781</v>
+        <v>1.04506451397521</v>
       </c>
       <c r="F13">
-        <v>1.014243319418244</v>
+        <v>1.049513133521704</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041140421634802</v>
+        <v>1.034375311055186</v>
       </c>
       <c r="J13">
-        <v>1.011828847293132</v>
+        <v>1.030668786911859</v>
       </c>
       <c r="K13">
-        <v>1.02426292036784</v>
+        <v>1.039702723474409</v>
       </c>
       <c r="L13">
-        <v>1.021325691597103</v>
+        <v>1.048633319058492</v>
       </c>
       <c r="M13">
-        <v>1.029059499055951</v>
+        <v>1.053065667435369</v>
       </c>
       <c r="N13">
-        <v>1.007818144807383</v>
+        <v>1.014234020579702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9820608270423077</v>
+        <v>1.024096218707698</v>
       </c>
       <c r="D14">
-        <v>1.009915398835882</v>
+        <v>1.036212622209008</v>
       </c>
       <c r="E14">
-        <v>1.007047553865028</v>
+        <v>1.045210236655606</v>
       </c>
       <c r="F14">
-        <v>1.014912660891902</v>
+        <v>1.049652357134887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041318983320509</v>
+        <v>1.034398790631795</v>
       </c>
       <c r="J14">
-        <v>1.012236170897101</v>
+        <v>1.030751046907572</v>
       </c>
       <c r="K14">
-        <v>1.024669443697052</v>
+        <v>1.039782657658245</v>
       </c>
       <c r="L14">
-        <v>1.0218545724745</v>
+        <v>1.048747212084644</v>
       </c>
       <c r="M14">
-        <v>1.029575328865883</v>
+        <v>1.053173241636443</v>
       </c>
       <c r="N14">
-        <v>1.007955493795427</v>
+        <v>1.014261570886654</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9825235964653275</v>
+        <v>1.024184909819199</v>
       </c>
       <c r="D15">
-        <v>1.010258932662552</v>
+        <v>1.036281616309912</v>
       </c>
       <c r="E15">
-        <v>1.007468231402012</v>
+        <v>1.045300054375098</v>
       </c>
       <c r="F15">
-        <v>1.015323942516374</v>
+        <v>1.049738161998917</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041428441814551</v>
+        <v>1.034413230027113</v>
       </c>
       <c r="J15">
-        <v>1.012486318319304</v>
+        <v>1.030801731253387</v>
       </c>
       <c r="K15">
-        <v>1.024919072070746</v>
+        <v>1.039831902827063</v>
       </c>
       <c r="L15">
-        <v>1.022179516084023</v>
+        <v>1.048817402510389</v>
       </c>
       <c r="M15">
-        <v>1.029892188864091</v>
+        <v>1.053239530040872</v>
       </c>
       <c r="N15">
-        <v>1.008039841355689</v>
+        <v>1.01427854499529</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9851951154098917</v>
+        <v>1.024701394716026</v>
       </c>
       <c r="D16">
-        <v>1.012243693554626</v>
+        <v>1.036683375987264</v>
       </c>
       <c r="E16">
-        <v>1.009900431190458</v>
+        <v>1.045823337203335</v>
       </c>
       <c r="F16">
-        <v>1.017700930382167</v>
+        <v>1.050237957471382</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042057084840758</v>
+        <v>1.034496858524663</v>
       </c>
       <c r="J16">
-        <v>1.013929982043879</v>
+        <v>1.031096754136629</v>
       </c>
       <c r="K16">
-        <v>1.026359308989732</v>
+        <v>1.040118454807341</v>
       </c>
       <c r="L16">
-        <v>1.024057042321413</v>
+        <v>1.04922620206496</v>
       </c>
       <c r="M16">
-        <v>1.031722016846678</v>
+        <v>1.053625484010222</v>
       </c>
       <c r="N16">
-        <v>1.008526602524003</v>
+        <v>1.014377332970724</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9868519322964328</v>
+        <v>1.025025603482157</v>
       </c>
       <c r="D17">
-        <v>1.013475927498248</v>
+        <v>1.036935549898425</v>
       </c>
       <c r="E17">
-        <v>1.011412006554912</v>
+        <v>1.046152021712178</v>
       </c>
       <c r="F17">
-        <v>1.019177408512384</v>
+        <v>1.050551793762237</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042444062987268</v>
+        <v>1.034548950375565</v>
       </c>
       <c r="J17">
-        <v>1.014824919299214</v>
+        <v>1.0312818290851</v>
       </c>
       <c r="K17">
-        <v>1.02725172973097</v>
+        <v>1.040298133045605</v>
       </c>
       <c r="L17">
-        <v>1.025222857535124</v>
+        <v>1.049482859668552</v>
       </c>
       <c r="M17">
-        <v>1.032857340790992</v>
+        <v>1.053867693039438</v>
       </c>
       <c r="N17">
-        <v>1.008828320687746</v>
+        <v>1.014439292035339</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9878116558290411</v>
+        <v>1.025214791845843</v>
       </c>
       <c r="D18">
-        <v>1.014190165429986</v>
+        <v>1.037082695969914</v>
       </c>
       <c r="E18">
-        <v>1.012288724636155</v>
+        <v>1.046343896825718</v>
       </c>
       <c r="F18">
-        <v>1.020033486455679</v>
+        <v>1.050734966631657</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042667166299843</v>
+        <v>1.034579202513316</v>
       </c>
       <c r="J18">
-        <v>1.015343165846954</v>
+        <v>1.031389785126054</v>
       </c>
       <c r="K18">
-        <v>1.027768372493369</v>
+        <v>1.04040291127326</v>
       </c>
       <c r="L18">
-        <v>1.025898657309033</v>
+        <v>1.049632645488684</v>
       </c>
       <c r="M18">
-        <v>1.033515149350811</v>
+        <v>1.054009008672756</v>
       </c>
       <c r="N18">
-        <v>1.00900303059692</v>
+        <v>1.014475428666759</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9881377803977978</v>
+        <v>1.02527931419575</v>
       </c>
       <c r="D19">
-        <v>1.014432946883598</v>
+        <v>1.037132878638154</v>
       </c>
       <c r="E19">
-        <v>1.012586832544675</v>
+        <v>1.046409348188077</v>
       </c>
       <c r="F19">
-        <v>1.020324527913499</v>
+        <v>1.05079744370891</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042742798572551</v>
+        <v>1.034589495273318</v>
       </c>
       <c r="J19">
-        <v>1.015519244732104</v>
+        <v>1.031426596147719</v>
       </c>
       <c r="K19">
-        <v>1.027943881131085</v>
+        <v>1.040438633649585</v>
       </c>
       <c r="L19">
-        <v>1.026128383479176</v>
+        <v>1.049683732402604</v>
       </c>
       <c r="M19">
-        <v>1.033738705986449</v>
+        <v>1.054057200249827</v>
       </c>
       <c r="N19">
-        <v>1.009062387867607</v>
+        <v>1.014487749793779</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9866748649841511</v>
+        <v>1.024990810365709</v>
       </c>
       <c r="D20">
-        <v>1.013344188314459</v>
+        <v>1.036908488084245</v>
       </c>
       <c r="E20">
-        <v>1.011250344241448</v>
+        <v>1.046116740514139</v>
       </c>
       <c r="F20">
-        <v>1.019019529203214</v>
+        <v>1.050518109932948</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042402815107417</v>
+        <v>1.034543375077658</v>
       </c>
       <c r="J20">
-        <v>1.014729291133379</v>
+        <v>1.031261971772949</v>
       </c>
       <c r="K20">
-        <v>1.027156385543465</v>
+        <v>1.040278857851845</v>
       </c>
       <c r="L20">
-        <v>1.025098213083613</v>
+        <v>1.049455314265309</v>
       </c>
       <c r="M20">
-        <v>1.032735989083718</v>
+        <v>1.053841702235486</v>
       </c>
       <c r="N20">
-        <v>1.008796081850431</v>
+        <v>1.014432644725401</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9818392561902825</v>
+        <v>1.024053834296492</v>
       </c>
       <c r="D21">
-        <v>1.009750946029776</v>
+        <v>1.036179650390341</v>
       </c>
       <c r="E21">
-        <v>1.006846202362206</v>
+        <v>1.045167318045205</v>
       </c>
       <c r="F21">
-        <v>1.01471579087494</v>
+        <v>1.04961135412219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041266518070602</v>
+        <v>1.034391882135763</v>
       </c>
       <c r="J21">
-        <v>1.012116395135555</v>
+        <v>1.030726823126921</v>
       </c>
       <c r="K21">
-        <v>1.024549908984947</v>
+        <v>1.03975912005583</v>
       </c>
       <c r="L21">
-        <v>1.021699021881388</v>
+        <v>1.048713669846476</v>
       </c>
       <c r="M21">
-        <v>1.029423630322468</v>
+        <v>1.053141561964809</v>
       </c>
       <c r="N21">
-        <v>1.007915105940313</v>
+        <v>1.014253458120567</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9787352899326989</v>
+        <v>1.023465478247492</v>
       </c>
       <c r="D22">
-        <v>1.007449128799219</v>
+        <v>1.035721930461702</v>
       </c>
       <c r="E22">
-        <v>1.004029949048928</v>
+        <v>1.044571824936766</v>
       </c>
       <c r="F22">
-        <v>1.011961172847258</v>
+        <v>1.049042313222921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040527754834138</v>
+        <v>1.034295446658416</v>
       </c>
       <c r="J22">
-        <v>1.010438040863696</v>
+        <v>1.030390407367261</v>
       </c>
       <c r="K22">
-        <v>1.022874447404881</v>
+        <v>1.039432124313043</v>
       </c>
       <c r="L22">
-        <v>1.01952199237473</v>
+        <v>1.048248117019939</v>
       </c>
       <c r="M22">
-        <v>1.027299343163051</v>
+        <v>1.052701720882566</v>
       </c>
       <c r="N22">
-        <v>1.007349141534903</v>
+        <v>1.014140772222875</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.980386970158185</v>
+        <v>1.023777304519886</v>
       </c>
       <c r="D23">
-        <v>1.008673505869006</v>
+        <v>1.035964525654786</v>
       </c>
       <c r="E23">
-        <v>1.005527498227129</v>
+        <v>1.044887369309668</v>
       </c>
       <c r="F23">
-        <v>1.013426188214849</v>
+        <v>1.04934387022518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04092173210731</v>
+        <v>1.034346681103991</v>
       </c>
       <c r="J23">
-        <v>1.011331220319807</v>
+        <v>1.030568742235083</v>
       </c>
       <c r="K23">
-        <v>1.023766197654052</v>
+        <v>1.039605490943559</v>
       </c>
       <c r="L23">
-        <v>1.020679950924949</v>
+        <v>1.048494843870407</v>
       </c>
       <c r="M23">
-        <v>1.028429517415773</v>
+        <v>1.052934853807042</v>
       </c>
       <c r="N23">
-        <v>1.007650340910887</v>
+        <v>1.014200511282856</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9867548946556162</v>
+        <v>1.025006531621505</v>
       </c>
       <c r="D24">
-        <v>1.013403729476768</v>
+        <v>1.036920715976421</v>
       </c>
       <c r="E24">
-        <v>1.011323407779006</v>
+        <v>1.04613268207785</v>
       </c>
       <c r="F24">
-        <v>1.019090883884966</v>
+        <v>1.0505333298428</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042421461320387</v>
+        <v>1.034545894723225</v>
       </c>
       <c r="J24">
-        <v>1.014772512972596</v>
+        <v>1.031270944422411</v>
       </c>
       <c r="K24">
-        <v>1.027199479486091</v>
+        <v>1.040287567559785</v>
       </c>
       <c r="L24">
-        <v>1.025154547506648</v>
+        <v>1.049467760594879</v>
       </c>
       <c r="M24">
-        <v>1.032790836294511</v>
+        <v>1.05385344624011</v>
       </c>
       <c r="N24">
-        <v>1.008810653134536</v>
+        <v>1.014435648368092</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9938844363076238</v>
+        <v>1.026436226334202</v>
       </c>
       <c r="D25">
-        <v>1.018717142036164</v>
+        <v>1.038032562321533</v>
       </c>
       <c r="E25">
-        <v>1.017855865055024</v>
+        <v>1.047584028122362</v>
       </c>
       <c r="F25">
-        <v>1.025464450669864</v>
+        <v>1.051918232210316</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044059594142533</v>
+        <v>1.034771884265255</v>
       </c>
       <c r="J25">
-        <v>1.018619381041127</v>
+        <v>1.03208600071173</v>
       </c>
       <c r="K25">
-        <v>1.031031684231028</v>
+        <v>1.041078091786658</v>
       </c>
       <c r="L25">
-        <v>1.03018317401091</v>
+        <v>1.050599978318465</v>
       </c>
       <c r="M25">
-        <v>1.037679918416276</v>
+        <v>1.054920953388501</v>
       </c>
       <c r="N25">
-        <v>1.010107274059304</v>
+        <v>1.014708390798629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027579103851454</v>
+        <v>0.9993783230131972</v>
       </c>
       <c r="D2">
-        <v>1.038921105394123</v>
+        <v>1.022823268324075</v>
       </c>
       <c r="E2">
-        <v>1.048746567530101</v>
+        <v>1.022922505404069</v>
       </c>
       <c r="F2">
-        <v>1.053026461645807</v>
+        <v>1.030398880174662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034947924550092</v>
+        <v>1.04528747733242</v>
       </c>
       <c r="J2">
-        <v>1.032736193644655</v>
+        <v>1.021577644244602</v>
       </c>
       <c r="K2">
-        <v>1.041707763553306</v>
+        <v>1.03397353849353</v>
       </c>
       <c r="L2">
-        <v>1.051505552442187</v>
+        <v>1.034071469504089</v>
       </c>
       <c r="M2">
-        <v>1.055773567335963</v>
+        <v>1.041450352201418</v>
       </c>
       <c r="N2">
-        <v>1.014925814505569</v>
+        <v>1.01110393167766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028410388610715</v>
+        <v>1.00326347203088</v>
       </c>
       <c r="D3">
-        <v>1.039567240331053</v>
+        <v>1.025732757333505</v>
       </c>
       <c r="E3">
-        <v>1.049593509313524</v>
+        <v>1.02652369668353</v>
       </c>
       <c r="F3">
-        <v>1.053833206538555</v>
+        <v>1.033900826115583</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035073291883963</v>
+        <v>1.046135099841717</v>
       </c>
       <c r="J3">
-        <v>1.033208330303622</v>
+        <v>1.023665565146334</v>
       </c>
       <c r="K3">
-        <v>1.042164443922471</v>
+        <v>1.03604663852625</v>
       </c>
       <c r="L3">
-        <v>1.052164511444643</v>
+        <v>1.036828087285074</v>
       </c>
       <c r="M3">
-        <v>1.056393290961473</v>
+        <v>1.044117563502973</v>
       </c>
       <c r="N3">
-        <v>1.01508360832088</v>
+        <v>1.011807056138618</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028948948965678</v>
+        <v>1.005731745038926</v>
       </c>
       <c r="D4">
-        <v>1.039985772271892</v>
+        <v>1.027583510430563</v>
       </c>
       <c r="E4">
-        <v>1.050142837386687</v>
+        <v>1.028819732564711</v>
       </c>
       <c r="F4">
-        <v>1.054356171255847</v>
+        <v>1.03613111692968</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035153273349118</v>
+        <v>1.046663763707091</v>
       </c>
       <c r="J4">
-        <v>1.03351384478649</v>
+        <v>1.024989959976631</v>
       </c>
       <c r="K4">
-        <v>1.042459698973</v>
+        <v>1.037360045851816</v>
       </c>
       <c r="L4">
-        <v>1.052591554686157</v>
+        <v>1.038582339688297</v>
       </c>
       <c r="M4">
-        <v>1.056794584527109</v>
+        <v>1.045812183564435</v>
       </c>
       <c r="N4">
-        <v>1.015185673932038</v>
+        <v>1.012252897939473</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029175516948152</v>
+        <v>1.00675880883518</v>
       </c>
       <c r="D5">
-        <v>1.040161826442164</v>
+        <v>1.028354131725304</v>
       </c>
       <c r="E5">
-        <v>1.050374084173284</v>
+        <v>1.029777051155133</v>
       </c>
       <c r="F5">
-        <v>1.054576250286363</v>
+        <v>1.037060427273684</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03518662404354</v>
+        <v>1.046881345886403</v>
       </c>
       <c r="J5">
-        <v>1.03364228432417</v>
+        <v>1.025540522381733</v>
       </c>
       <c r="K5">
-        <v>1.042583763508674</v>
+        <v>1.037905647169344</v>
       </c>
       <c r="L5">
-        <v>1.052771238266798</v>
+        <v>1.03931296645537</v>
       </c>
       <c r="M5">
-        <v>1.05696335632704</v>
+        <v>1.046517313226957</v>
       </c>
       <c r="N5">
-        <v>1.015228572862382</v>
+        <v>1.012438197731202</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029213567880536</v>
+        <v>1.006930645423232</v>
       </c>
       <c r="D6">
-        <v>1.040191392717998</v>
+        <v>1.028483092003117</v>
       </c>
       <c r="E6">
-        <v>1.05041292960405</v>
+        <v>1.029937330852174</v>
       </c>
       <c r="F6">
-        <v>1.054613215639933</v>
+        <v>1.037215982520123</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035192207712731</v>
+        <v>1.046917607217066</v>
       </c>
       <c r="J6">
-        <v>1.03366384992423</v>
+        <v>1.025632604471498</v>
       </c>
       <c r="K6">
-        <v>1.04260459089092</v>
+        <v>1.03799687601058</v>
       </c>
       <c r="L6">
-        <v>1.052801416948396</v>
+        <v>1.039435245037034</v>
       </c>
       <c r="M6">
-        <v>1.056991697793085</v>
+        <v>1.046635285609866</v>
       </c>
       <c r="N6">
-        <v>1.015235775213698</v>
+        <v>1.012469186849108</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028951975762476</v>
+        <v>1.005745509922271</v>
       </c>
       <c r="D7">
-        <v>1.039988124312606</v>
+        <v>1.027593836469587</v>
       </c>
       <c r="E7">
-        <v>1.050145926104862</v>
+        <v>1.028832555160464</v>
       </c>
       <c r="F7">
-        <v>1.054359111082376</v>
+        <v>1.036143566732503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035153720058318</v>
+        <v>1.046666689298189</v>
       </c>
       <c r="J7">
-        <v>1.033515560998556</v>
+        <v>1.024997340821747</v>
       </c>
       <c r="K7">
-        <v>1.042461356969606</v>
+        <v>1.037367361759643</v>
       </c>
       <c r="L7">
-        <v>1.052593955021558</v>
+        <v>1.038592129067269</v>
       </c>
       <c r="M7">
-        <v>1.056796839399121</v>
+        <v>1.04582163393222</v>
       </c>
       <c r="N7">
-        <v>1.015186247187372</v>
+        <v>1.01225538223345</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027859902052279</v>
+        <v>1.000700993015067</v>
       </c>
       <c r="D8">
-        <v>1.039139377617556</v>
+        <v>1.023813266100103</v>
       </c>
       <c r="E8">
-        <v>1.049032525083149</v>
+        <v>1.024146772877722</v>
       </c>
       <c r="F8">
-        <v>1.053298907605252</v>
+        <v>1.031589921222826</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034990528567538</v>
+        <v>1.045578081104318</v>
       </c>
       <c r="J8">
-        <v>1.0328957515069</v>
+        <v>1.022288880479332</v>
       </c>
       <c r="K8">
-        <v>1.04186215127094</v>
+        <v>1.034680050721821</v>
       </c>
       <c r="L8">
-        <v>1.051728114579641</v>
+        <v>1.035009300531441</v>
       </c>
       <c r="M8">
-        <v>1.055982944593583</v>
+        <v>1.04235833569387</v>
       </c>
       <c r="N8">
-        <v>1.014979149156976</v>
+        <v>1.011343478191234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025940683142308</v>
+        <v>0.991446169582771</v>
       </c>
       <c r="D9">
-        <v>1.03764722513649</v>
+        <v>1.016897989064756</v>
       </c>
       <c r="E9">
-        <v>1.047080615241622</v>
+        <v>1.01561650243656</v>
       </c>
       <c r="F9">
-        <v>1.051438034025979</v>
+        <v>1.023280955104114</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034694267235388</v>
+        <v>1.043504677018105</v>
       </c>
       <c r="J9">
-        <v>1.03180370421375</v>
+        <v>1.017304644162491</v>
       </c>
       <c r="K9">
-        <v>1.040804438800621</v>
+        <v>1.029722730807335</v>
       </c>
       <c r="L9">
-        <v>1.05020746531703</v>
+        <v>1.028461193806361</v>
       </c>
       <c r="M9">
-        <v>1.054551059933503</v>
+        <v>1.036007279023037</v>
       </c>
       <c r="N9">
-        <v>1.014613949046231</v>
+        <v>1.009664194884341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>1.024664767257622</v>
+        <v>0.9850069651295605</v>
       </c>
       <c r="D10">
-        <v>1.036654885705324</v>
+        <v>1.012103823277135</v>
       </c>
       <c r="E10">
-        <v>1.045786214252173</v>
+        <v>1.009728929465086</v>
       </c>
       <c r="F10">
-        <v>1.050202506892929</v>
+        <v>1.017533372267874</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03449095377851</v>
+        <v>1.042012996295595</v>
       </c>
       <c r="J10">
-        <v>1.031075839586621</v>
+        <v>1.013828331880573</v>
       </c>
       <c r="K10">
-        <v>1.040098146080903</v>
+        <v>1.026257925085947</v>
       </c>
       <c r="L10">
-        <v>1.049197208391085</v>
+        <v>1.023924719135616</v>
       </c>
       <c r="M10">
-        <v>1.05359811740331</v>
+        <v>1.031593111589505</v>
       </c>
       <c r="N10">
-        <v>1.014370330599462</v>
+        <v>1.008492330844422</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024113147352485</v>
+        <v>0.9821492482803479</v>
       </c>
       <c r="D11">
-        <v>1.036225791328422</v>
+        <v>1.009981031465857</v>
       </c>
       <c r="E11">
-        <v>1.045227379420863</v>
+        <v>1.007127918191315</v>
       </c>
       <c r="F11">
-        <v>1.049668734417576</v>
+        <v>1.014991233708179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034401548475991</v>
+        <v>1.041339910060073</v>
       </c>
       <c r="J11">
-        <v>1.030760721640051</v>
+        <v>1.012283968015037</v>
       </c>
       <c r="K11">
-        <v>1.039792058039506</v>
+        <v>1.024717143277115</v>
       </c>
       <c r="L11">
-        <v>1.048760609266665</v>
+        <v>1.021916652779286</v>
       </c>
       <c r="M11">
-        <v>1.053185894505214</v>
+        <v>1.029635868645368</v>
       </c>
       <c r="N11">
-        <v>1.014264810996334</v>
+        <v>1.007971610682236</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023908382029026</v>
+        <v>0.9810768151143548</v>
       </c>
       <c r="D12">
-        <v>1.036066497886005</v>
+        <v>1.009185195628059</v>
       </c>
       <c r="E12">
-        <v>1.045020053117745</v>
+        <v>1.006153663306857</v>
       </c>
       <c r="F12">
-        <v>1.049470652743477</v>
+        <v>1.01403858850514</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034368134343814</v>
+        <v>1.041085701329068</v>
       </c>
       <c r="J12">
-        <v>1.030643681930316</v>
+        <v>1.01170420536066</v>
       </c>
       <c r="K12">
-        <v>1.039678325864935</v>
+        <v>1.02413851241058</v>
       </c>
       <c r="L12">
-        <v>1.048598566130302</v>
+        <v>1.021163910880164</v>
       </c>
       <c r="M12">
-        <v>1.053032839489664</v>
+        <v>1.028901684573528</v>
       </c>
       <c r="N12">
-        <v>1.014225612100118</v>
+        <v>1.007776115001383</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023952298937308</v>
+        <v>0.9813073596758672</v>
       </c>
       <c r="D13">
-        <v>1.03610066270747</v>
+        <v>1.009356241980065</v>
       </c>
       <c r="E13">
-        <v>1.04506451397521</v>
+        <v>1.006363017942782</v>
       </c>
       <c r="F13">
-        <v>1.049513133521704</v>
+        <v>1.014243319418244</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034375311055186</v>
+        <v>1.041140421634801</v>
       </c>
       <c r="J13">
-        <v>1.030668786911859</v>
+        <v>1.011828847293132</v>
       </c>
       <c r="K13">
-        <v>1.039702723474409</v>
+        <v>1.024262920367839</v>
       </c>
       <c r="L13">
-        <v>1.048633319058492</v>
+        <v>1.021325691597103</v>
       </c>
       <c r="M13">
-        <v>1.053065667435369</v>
+        <v>1.029059499055951</v>
       </c>
       <c r="N13">
-        <v>1.014234020579702</v>
+        <v>1.007818144807383</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024096218707698</v>
+        <v>0.9820608270423071</v>
       </c>
       <c r="D14">
-        <v>1.036212622209008</v>
+        <v>1.009915398835881</v>
       </c>
       <c r="E14">
-        <v>1.045210236655606</v>
+        <v>1.007047553865027</v>
       </c>
       <c r="F14">
-        <v>1.049652357134887</v>
+        <v>1.014912660891902</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034398790631795</v>
+        <v>1.041318983320509</v>
       </c>
       <c r="J14">
-        <v>1.030751046907572</v>
+        <v>1.012236170897101</v>
       </c>
       <c r="K14">
-        <v>1.039782657658245</v>
+        <v>1.024669443697051</v>
       </c>
       <c r="L14">
-        <v>1.048747212084644</v>
+        <v>1.0218545724745</v>
       </c>
       <c r="M14">
-        <v>1.053173241636443</v>
+        <v>1.029575328865882</v>
       </c>
       <c r="N14">
-        <v>1.014261570886654</v>
+        <v>1.007955493795426</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024184909819199</v>
+        <v>0.9825235964653276</v>
       </c>
       <c r="D15">
-        <v>1.036281616309912</v>
+        <v>1.010258932662552</v>
       </c>
       <c r="E15">
-        <v>1.045300054375098</v>
+        <v>1.007468231402012</v>
       </c>
       <c r="F15">
-        <v>1.049738161998917</v>
+        <v>1.015323942516374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034413230027113</v>
+        <v>1.041428441814551</v>
       </c>
       <c r="J15">
-        <v>1.030801731253387</v>
+        <v>1.012486318319304</v>
       </c>
       <c r="K15">
-        <v>1.039831902827063</v>
+        <v>1.024919072070746</v>
       </c>
       <c r="L15">
-        <v>1.048817402510389</v>
+        <v>1.022179516084022</v>
       </c>
       <c r="M15">
-        <v>1.053239530040872</v>
+        <v>1.029892188864091</v>
       </c>
       <c r="N15">
-        <v>1.01427854499529</v>
+        <v>1.008039841355689</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024701394716026</v>
+        <v>0.9851951154098922</v>
       </c>
       <c r="D16">
-        <v>1.036683375987264</v>
+        <v>1.012243693554626</v>
       </c>
       <c r="E16">
-        <v>1.045823337203335</v>
+        <v>1.009900431190459</v>
       </c>
       <c r="F16">
-        <v>1.050237957471382</v>
+        <v>1.017700930382168</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034496858524663</v>
+        <v>1.042057084840758</v>
       </c>
       <c r="J16">
-        <v>1.031096754136629</v>
+        <v>1.013929982043879</v>
       </c>
       <c r="K16">
-        <v>1.040118454807341</v>
+        <v>1.026359308989732</v>
       </c>
       <c r="L16">
-        <v>1.04922620206496</v>
+        <v>1.024057042321414</v>
       </c>
       <c r="M16">
-        <v>1.053625484010222</v>
+        <v>1.031722016846679</v>
       </c>
       <c r="N16">
-        <v>1.014377332970724</v>
+        <v>1.008526602524003</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025025603482157</v>
+        <v>0.986851932296433</v>
       </c>
       <c r="D17">
-        <v>1.036935549898425</v>
+        <v>1.013475927498248</v>
       </c>
       <c r="E17">
-        <v>1.046152021712178</v>
+        <v>1.011412006554912</v>
       </c>
       <c r="F17">
-        <v>1.050551793762237</v>
+        <v>1.019177408512384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034548950375565</v>
+        <v>1.042444062987268</v>
       </c>
       <c r="J17">
-        <v>1.0312818290851</v>
+        <v>1.014824919299214</v>
       </c>
       <c r="K17">
-        <v>1.040298133045605</v>
+        <v>1.02725172973097</v>
       </c>
       <c r="L17">
-        <v>1.049482859668552</v>
+        <v>1.025222857535125</v>
       </c>
       <c r="M17">
-        <v>1.053867693039438</v>
+        <v>1.032857340790992</v>
       </c>
       <c r="N17">
-        <v>1.014439292035339</v>
+        <v>1.008828320687746</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025214791845843</v>
+        <v>0.9878116558290414</v>
       </c>
       <c r="D18">
-        <v>1.037082695969914</v>
+        <v>1.014190165429987</v>
       </c>
       <c r="E18">
-        <v>1.046343896825718</v>
+        <v>1.012288724636155</v>
       </c>
       <c r="F18">
-        <v>1.050734966631657</v>
+        <v>1.020033486455679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034579202513316</v>
+        <v>1.042667166299843</v>
       </c>
       <c r="J18">
-        <v>1.031389785126054</v>
+        <v>1.015343165846954</v>
       </c>
       <c r="K18">
-        <v>1.04040291127326</v>
+        <v>1.027768372493369</v>
       </c>
       <c r="L18">
-        <v>1.049632645488684</v>
+        <v>1.025898657309033</v>
       </c>
       <c r="M18">
-        <v>1.054009008672756</v>
+        <v>1.033515149350811</v>
       </c>
       <c r="N18">
-        <v>1.014475428666759</v>
+        <v>1.00900303059692</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02527931419575</v>
+        <v>0.9881377803977978</v>
       </c>
       <c r="D19">
-        <v>1.037132878638154</v>
+        <v>1.014432946883598</v>
       </c>
       <c r="E19">
-        <v>1.046409348188077</v>
+        <v>1.012586832544675</v>
       </c>
       <c r="F19">
-        <v>1.05079744370891</v>
+        <v>1.020324527913499</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034589495273318</v>
+        <v>1.042742798572551</v>
       </c>
       <c r="J19">
-        <v>1.031426596147719</v>
+        <v>1.015519244732104</v>
       </c>
       <c r="K19">
-        <v>1.040438633649585</v>
+        <v>1.027943881131085</v>
       </c>
       <c r="L19">
-        <v>1.049683732402604</v>
+        <v>1.026128383479176</v>
       </c>
       <c r="M19">
-        <v>1.054057200249827</v>
+        <v>1.033738705986449</v>
       </c>
       <c r="N19">
-        <v>1.014487749793779</v>
+        <v>1.009062387867607</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024990810365709</v>
+        <v>0.9866748649841517</v>
       </c>
       <c r="D20">
-        <v>1.036908488084245</v>
+        <v>1.01334418831446</v>
       </c>
       <c r="E20">
-        <v>1.046116740514139</v>
+        <v>1.011250344241448</v>
       </c>
       <c r="F20">
-        <v>1.050518109932948</v>
+        <v>1.019019529203215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034543375077658</v>
+        <v>1.042402815107418</v>
       </c>
       <c r="J20">
-        <v>1.031261971772949</v>
+        <v>1.01472929113338</v>
       </c>
       <c r="K20">
-        <v>1.040278857851845</v>
+        <v>1.027156385543466</v>
       </c>
       <c r="L20">
-        <v>1.049455314265309</v>
+        <v>1.025098213083614</v>
       </c>
       <c r="M20">
-        <v>1.053841702235486</v>
+        <v>1.032735989083719</v>
       </c>
       <c r="N20">
-        <v>1.014432644725401</v>
+        <v>1.008796081850432</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024053834296492</v>
+        <v>0.981839256190283</v>
       </c>
       <c r="D21">
-        <v>1.036179650390341</v>
+        <v>1.009750946029776</v>
       </c>
       <c r="E21">
-        <v>1.045167318045205</v>
+        <v>1.006846202362207</v>
       </c>
       <c r="F21">
-        <v>1.04961135412219</v>
+        <v>1.01471579087494</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034391882135763</v>
+        <v>1.041266518070602</v>
       </c>
       <c r="J21">
-        <v>1.030726823126921</v>
+        <v>1.012116395135556</v>
       </c>
       <c r="K21">
-        <v>1.03975912005583</v>
+        <v>1.024549908984947</v>
       </c>
       <c r="L21">
-        <v>1.048713669846476</v>
+        <v>1.021699021881389</v>
       </c>
       <c r="M21">
-        <v>1.053141561964809</v>
+        <v>1.029423630322469</v>
       </c>
       <c r="N21">
-        <v>1.014253458120567</v>
+        <v>1.007915105940313</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023465478247492</v>
+        <v>0.9787352899326994</v>
       </c>
       <c r="D22">
-        <v>1.035721930461702</v>
+        <v>1.007449128799219</v>
       </c>
       <c r="E22">
-        <v>1.044571824936766</v>
+        <v>1.004029949048928</v>
       </c>
       <c r="F22">
-        <v>1.049042313222921</v>
+        <v>1.011961172847258</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034295446658416</v>
+        <v>1.040527754834138</v>
       </c>
       <c r="J22">
-        <v>1.030390407367261</v>
+        <v>1.010438040863696</v>
       </c>
       <c r="K22">
-        <v>1.039432124313043</v>
+        <v>1.022874447404881</v>
       </c>
       <c r="L22">
-        <v>1.048248117019939</v>
+        <v>1.01952199237473</v>
       </c>
       <c r="M22">
-        <v>1.052701720882566</v>
+        <v>1.027299343163051</v>
       </c>
       <c r="N22">
-        <v>1.014140772222875</v>
+        <v>1.007349141534903</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023777304519886</v>
+        <v>0.9803869701581852</v>
       </c>
       <c r="D23">
-        <v>1.035964525654786</v>
+        <v>1.008673505869006</v>
       </c>
       <c r="E23">
-        <v>1.044887369309668</v>
+        <v>1.00552749822713</v>
       </c>
       <c r="F23">
-        <v>1.04934387022518</v>
+        <v>1.013426188214849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034346681103991</v>
+        <v>1.04092173210731</v>
       </c>
       <c r="J23">
-        <v>1.030568742235083</v>
+        <v>1.011331220319808</v>
       </c>
       <c r="K23">
-        <v>1.039605490943559</v>
+        <v>1.023766197654052</v>
       </c>
       <c r="L23">
-        <v>1.048494843870407</v>
+        <v>1.020679950924949</v>
       </c>
       <c r="M23">
-        <v>1.052934853807042</v>
+        <v>1.028429517415774</v>
       </c>
       <c r="N23">
-        <v>1.014200511282856</v>
+        <v>1.007650340910888</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025006531621505</v>
+        <v>0.9867548946556161</v>
       </c>
       <c r="D24">
-        <v>1.036920715976421</v>
+        <v>1.013403729476767</v>
       </c>
       <c r="E24">
-        <v>1.04613268207785</v>
+        <v>1.011323407779005</v>
       </c>
       <c r="F24">
-        <v>1.0505333298428</v>
+        <v>1.019090883884965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034545894723225</v>
+        <v>1.042421461320387</v>
       </c>
       <c r="J24">
-        <v>1.031270944422411</v>
+        <v>1.014772512972596</v>
       </c>
       <c r="K24">
-        <v>1.040287567559785</v>
+        <v>1.027199479486091</v>
       </c>
       <c r="L24">
-        <v>1.049467760594879</v>
+        <v>1.025154547506647</v>
       </c>
       <c r="M24">
-        <v>1.05385344624011</v>
+        <v>1.03279083629451</v>
       </c>
       <c r="N24">
-        <v>1.014435648368092</v>
+        <v>1.008810653134536</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026436226334202</v>
+        <v>0.9938844363076241</v>
       </c>
       <c r="D25">
-        <v>1.038032562321533</v>
+        <v>1.018717142036164</v>
       </c>
       <c r="E25">
-        <v>1.047584028122362</v>
+        <v>1.017855865055024</v>
       </c>
       <c r="F25">
-        <v>1.051918232210316</v>
+        <v>1.025464450669864</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034771884265255</v>
+        <v>1.044059594142534</v>
       </c>
       <c r="J25">
-        <v>1.03208600071173</v>
+        <v>1.018619381041128</v>
       </c>
       <c r="K25">
-        <v>1.041078091786658</v>
+        <v>1.031031684231028</v>
       </c>
       <c r="L25">
-        <v>1.050599978318465</v>
+        <v>1.030183174010911</v>
       </c>
       <c r="M25">
-        <v>1.054920953388501</v>
+        <v>1.037679918416277</v>
       </c>
       <c r="N25">
-        <v>1.014708390798629</v>
+        <v>1.010107274059304</v>
       </c>
     </row>
   </sheetData>
